--- a/stats/stats/actor_travel_ended.xlsx
+++ b/stats/stats/actor_travel_ended.xlsx
@@ -395,16 +395,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10286</v>
+        <v>5000</v>
       </c>
       <c r="C2" t="n">
-        <v>10286</v>
+        <v>5000</v>
       </c>
       <c r="D2" t="n">
-        <v>10286</v>
+        <v>5000</v>
       </c>
       <c r="E2" t="n">
-        <v>10286</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="3">
@@ -414,16 +414,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>156.3019638343379</v>
+        <v>47.6728</v>
       </c>
       <c r="C3" t="n">
-        <v>157.2600622204939</v>
+        <v>121.5714</v>
       </c>
       <c r="D3" t="n">
-        <v>158.3220882753257</v>
+        <v>87.38420000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>158.1425238187828</v>
+        <v>62.2046</v>
       </c>
     </row>
     <row r="4">
@@ -433,16 +433,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>104.9772075641008</v>
+        <v>29.08536628386126</v>
       </c>
       <c r="C4" t="n">
-        <v>104.9802330323269</v>
+        <v>92.2023836890977</v>
       </c>
       <c r="D4" t="n">
-        <v>107.0789566528153</v>
+        <v>71.67707381682227</v>
       </c>
       <c r="E4" t="n">
-        <v>107.3548842738458</v>
+        <v>50.28345676308272</v>
       </c>
     </row>
     <row r="5">
@@ -471,16 +471,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="C6" t="n">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="D6" t="n">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="E6" t="n">
-        <v>49</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
@@ -490,16 +490,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>156</v>
+        <v>51</v>
       </c>
       <c r="C7" t="n">
-        <v>156</v>
+        <v>119</v>
       </c>
       <c r="D7" t="n">
-        <v>164</v>
+        <v>75</v>
       </c>
       <c r="E7" t="n">
-        <v>165</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8">
@@ -509,16 +509,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>260</v>
+        <v>71</v>
       </c>
       <c r="C8" t="n">
-        <v>259</v>
+        <v>214</v>
       </c>
       <c r="D8" t="n">
-        <v>266</v>
+        <v>150</v>
       </c>
       <c r="E8" t="n">
-        <v>269</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9">
@@ -528,16 +528,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>300</v>
+        <v>96</v>
       </c>
       <c r="C9" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="D9" t="n">
-        <v>300</v>
+        <v>222</v>
       </c>
       <c r="E9" t="n">
-        <v>300</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
